--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/deluxe20off-fcp.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/deluxe20off-fcp.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23607"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/WestmoreBeauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{E174E80C-D861-458B-BC1E-9A4054078092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{547484B9-A298-4FC0-97AF-87252B60EBC8}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{E174E80C-D861-458B-BC1E-9A4054078092}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB002842-E142-4E09-B829-B14A9A296410}"/>
   <bookViews>
-    <workbookView xWindow="-18450" yWindow="-16320" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18450" yWindow="-16320" windowWidth="29040" windowHeight="16440" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Active Campaign" sheetId="2" r:id="rId1"/>
+    <sheet name="Version 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -61,6 +61,9 @@
     <t>TFN</t>
   </si>
   <si>
+    <t>Price Book ID</t>
+  </si>
+  <si>
     <t>https://www.westmorebeauty.com/campaign/deluxe20off-fcp</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>603 (Upsell - Entry)</t>
   </si>
   <si>
+    <t>PWYA33F</t>
+  </si>
+  <si>
     <t>https://www.westmorebeauty.com/campaign/deluxe20off-fcp-holiday</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>Flawless Body &amp; Face Essentials -Deluxe Kit (Fair/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body &amp; Face Essentials -Deluxe Kit (Light/Brunette)</t>
+  </si>
+  <si>
     <t>Flawless Body &amp; Face Essentials Deluxe Kit (Natural/Brunette)</t>
   </si>
   <si>
@@ -115,9 +124,15 @@
     <t>Flawless Body &amp; Face Essentials Deluxe Kit (Bronze/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body &amp; Face Essentials - (Deep/Brunette)</t>
+  </si>
+  <si>
     <t>Flawless Body Essentials Basic Kit (Fair/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body Essentials (Light/Brunette)</t>
+  </si>
+  <si>
     <t>Flawless Body Essentials Basic Kit  (Natural/Brunette)</t>
   </si>
   <si>
@@ -127,6 +142,9 @@
     <t>Flawless Body Essentials Basic Kit  (Bronze/Brunette)</t>
   </si>
   <si>
+    <t>Flawless Body Essentials (Deep/Brunette)</t>
+  </si>
+  <si>
     <t>Actual Kit Name (as in site)</t>
   </si>
   <si>
@@ -142,6 +160,9 @@
     <t>Fair Radiance</t>
   </si>
   <si>
+    <t>Light Radiance</t>
+  </si>
+  <si>
     <t>Natural Radiance</t>
   </si>
   <si>
@@ -151,6 +172,9 @@
     <t>Bronze Radiance</t>
   </si>
   <si>
+    <t>Deep Radiance</t>
+  </si>
+  <si>
     <t>PagePattern</t>
   </si>
   <si>
@@ -187,6 +211,9 @@
     <t>WY2A0803</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0992 </t>
+  </si>
+  <si>
     <t>WY2A0801</t>
   </si>
   <si>
@@ -196,9 +223,15 @@
     <t>WY2A0804</t>
   </si>
   <si>
+    <t>WY2A0993</t>
+  </si>
+  <si>
     <t>WY2A0157</t>
   </si>
   <si>
+    <t>WY2A0881</t>
+  </si>
+  <si>
     <t>WY2A0155</t>
   </si>
   <si>
@@ -208,6 +241,9 @@
     <t>WY2A0158</t>
   </si>
   <si>
+    <t>WY2A0891</t>
+  </si>
+  <si>
     <t>Entry piece count</t>
   </si>
   <si>
@@ -235,6 +271,9 @@
     <t>RWYA46S</t>
   </si>
   <si>
+    <t>RWYA4G7</t>
+  </si>
+  <si>
     <t>RWYA46T</t>
   </si>
   <si>
@@ -244,16 +283,25 @@
     <t>RWYA46V</t>
   </si>
   <si>
+    <t>RWYA4G8</t>
+  </si>
+  <si>
     <t>RWYA34H</t>
   </si>
   <si>
+    <t>RWYA4FY</t>
+  </si>
+  <si>
     <t>RWYA33N</t>
   </si>
   <si>
     <t>RWYA33R</t>
   </si>
   <si>
-    <t xml:space="preserve">RWYA34G </t>
+    <t>RWYA34G</t>
+  </si>
+  <si>
+    <t>RWYA4G3</t>
   </si>
   <si>
     <t>Entry Cart Language</t>
@@ -309,6 +357,9 @@
     <t>WY2A0779</t>
   </si>
   <si>
+    <t>WY2A0991</t>
+  </si>
+  <si>
     <t>WY2A0805</t>
   </si>
   <si>
@@ -318,9 +369,15 @@
     <t>WY2A0780</t>
   </si>
   <si>
+    <t>WY2A0994 </t>
+  </si>
+  <si>
     <t>WY2A0141</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0880 </t>
+  </si>
+  <si>
     <t>WY2A0139</t>
   </si>
   <si>
@@ -330,12 +387,18 @@
     <t>WY2A0142</t>
   </si>
   <si>
+    <t>WY2A0888</t>
+  </si>
+  <si>
     <t>Post Purchase Renewal Plan</t>
   </si>
   <si>
     <t>RWYA46W</t>
   </si>
   <si>
+    <t>RWYA4G9</t>
+  </si>
+  <si>
     <t>RWYA46X</t>
   </si>
   <si>
@@ -345,9 +408,15 @@
     <t>RWYA473</t>
   </si>
   <si>
+    <t>RWYA4GA</t>
+  </si>
+  <si>
     <t>RWYA34V</t>
   </si>
   <si>
+    <t>RWYA4G4</t>
+  </si>
+  <si>
     <t>RWYA34T</t>
   </si>
   <si>
@@ -355,6 +424,9 @@
   </si>
   <si>
     <t>RWYA34W</t>
+  </si>
+  <si>
+    <t>RWYA4G6</t>
   </si>
   <si>
     <t>Post Purchase Upsell Pricing</t>
@@ -449,6 +521,9 @@
     <t>WY2A0796</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0995 </t>
+  </si>
+  <si>
     <t>WY2A0781</t>
   </si>
   <si>
@@ -458,9 +533,15 @@
     <t>WY2A0797</t>
   </si>
   <si>
+    <t>WY2A0996</t>
+  </si>
+  <si>
     <t>WY2A0129</t>
   </si>
   <si>
+    <t xml:space="preserve">WY2A0886 </t>
+  </si>
+  <si>
     <t>WY2A0127</t>
   </si>
   <si>
@@ -470,6 +551,9 @@
     <t>WY2A0130</t>
   </si>
   <si>
+    <t>WY2A0861</t>
+  </si>
+  <si>
     <t>Continuity Payments</t>
   </si>
   <si>
@@ -533,7 +617,7 @@
     <t>Pre-Purchase Entry Shipping</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>Pre-Purchase Entry Promotion 1</t>
@@ -578,91 +662,7 @@
     <t>End</t>
   </si>
   <si>
-    <t>Price Book ID</t>
-  </si>
-  <si>
-    <t>PWYA33F</t>
-  </si>
-  <si>
-    <t>Flawless Body &amp; Face Essentials -Deluxe Kit (Light/Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body &amp; Face Essentials - (Deep/Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials (Light/Brunette)</t>
-  </si>
-  <si>
-    <t>Flawless Body Essentials (Deep/Brunette)</t>
-  </si>
-  <si>
-    <t>Light Radiance</t>
-  </si>
-  <si>
-    <t>Deep Radiance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0992 </t>
-  </si>
-  <si>
-    <t>WY2A0993</t>
-  </si>
-  <si>
-    <t>WY2A0881</t>
-  </si>
-  <si>
-    <t>WY2A0891</t>
-  </si>
-  <si>
-    <t>RWYA4G7</t>
-  </si>
-  <si>
-    <t>RWYA4G8</t>
-  </si>
-  <si>
-    <t>RWYA4FY</t>
-  </si>
-  <si>
-    <t>RWYA34G</t>
-  </si>
-  <si>
-    <t>RWYA4G3</t>
-  </si>
-  <si>
-    <t>WY2A0991</t>
-  </si>
-  <si>
-    <t>WY2A0994 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0880 </t>
-  </si>
-  <si>
-    <t>WY2A0888</t>
-  </si>
-  <si>
-    <t>RWYA4G9</t>
-  </si>
-  <si>
-    <t>RWYA4GA</t>
-  </si>
-  <si>
-    <t>RWYA4G4</t>
-  </si>
-  <si>
-    <t>RWYA4G6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0995 </t>
-  </si>
-  <si>
-    <t>WY2A0996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WY2A0886 </t>
-  </si>
-  <si>
-    <t>WY2A0861</t>
+    <t xml:space="preserve">RWYA34G </t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1013,13 +1013,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1195,6 +1215,21 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1202,15 +1237,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1528,1995 +1554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I103"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-    <col min="4" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A2" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" s="53" customFormat="1" ht="16.5">
-      <c r="A3" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="7" spans="1:9" s="18" customFormat="1" ht="31.5">
-      <c r="A7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="15.75">
-      <c r="A11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21">
-        <v>2</v>
-      </c>
-      <c r="G12" s="21">
-        <v>2</v>
-      </c>
-      <c r="H12" s="21">
-        <v>2</v>
-      </c>
-      <c r="I12" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="22">
-        <v>1</v>
-      </c>
-      <c r="C18" s="22">
-        <v>1</v>
-      </c>
-      <c r="D18" s="22">
-        <v>1</v>
-      </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
-      <c r="F18" s="23">
-        <v>1</v>
-      </c>
-      <c r="G18" s="24">
-        <v>1</v>
-      </c>
-      <c r="H18" s="24">
-        <v>1</v>
-      </c>
-      <c r="I18" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="28">
-        <v>47.96</v>
-      </c>
-      <c r="C20" s="29">
-        <v>47.96</v>
-      </c>
-      <c r="D20" s="28">
-        <v>47.96</v>
-      </c>
-      <c r="E20" s="28">
-        <v>47.96</v>
-      </c>
-      <c r="F20" s="30">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G20" s="31">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H20" s="31">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I20" s="31">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="28">
-        <v>0</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0</v>
-      </c>
-      <c r="D21" s="28">
-        <v>0</v>
-      </c>
-      <c r="E21" s="28">
-        <v>0</v>
-      </c>
-      <c r="F21" s="30">
-        <v>0</v>
-      </c>
-      <c r="G21" s="31">
-        <v>0</v>
-      </c>
-      <c r="H21" s="31">
-        <v>0</v>
-      </c>
-      <c r="I21" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="220.5">
-      <c r="A23" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="180">
-      <c r="A24" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="31.5">
-      <c r="A25" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="26">
-        <v>47.96</v>
-      </c>
-      <c r="C33" s="26">
-        <v>47.96</v>
-      </c>
-      <c r="D33" s="26">
-        <v>47.96</v>
-      </c>
-      <c r="E33" s="26">
-        <v>47.96</v>
-      </c>
-      <c r="F33" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G33" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H33" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I33" s="27">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="26">
-        <v>0</v>
-      </c>
-      <c r="C34" s="28">
-        <v>0</v>
-      </c>
-      <c r="D34" s="28">
-        <v>0</v>
-      </c>
-      <c r="E34" s="28">
-        <v>0</v>
-      </c>
-      <c r="F34" s="30">
-        <v>0</v>
-      </c>
-      <c r="G34" s="31">
-        <v>0</v>
-      </c>
-      <c r="H34" s="31">
-        <v>0</v>
-      </c>
-      <c r="I34" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="22">
-        <v>3</v>
-      </c>
-      <c r="C35" s="22">
-        <v>3</v>
-      </c>
-      <c r="D35" s="22">
-        <v>3</v>
-      </c>
-      <c r="E35" s="22">
-        <v>3</v>
-      </c>
-      <c r="F35" s="23">
-        <v>3</v>
-      </c>
-      <c r="G35" s="24">
-        <v>3</v>
-      </c>
-      <c r="H35" s="24">
-        <v>3</v>
-      </c>
-      <c r="I35" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="204.75">
-      <c r="A37" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" s="34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="180">
-      <c r="A38" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="165">
-      <c r="A39" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="31.5">
-      <c r="A40" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-    </row>
-    <row r="42" spans="1:9" ht="47.25">
-      <c r="A42" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="I47" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="22">
-        <v>3</v>
-      </c>
-      <c r="C49" s="22">
-        <v>3</v>
-      </c>
-      <c r="D49" s="22">
-        <v>3</v>
-      </c>
-      <c r="E49" s="22">
-        <v>3</v>
-      </c>
-      <c r="F49" s="23">
-        <v>3</v>
-      </c>
-      <c r="G49" s="24">
-        <v>3</v>
-      </c>
-      <c r="H49" s="24">
-        <v>3</v>
-      </c>
-      <c r="I49" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="C51" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="D51" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="E51" s="26">
-        <v>59.95</v>
-      </c>
-      <c r="F51" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="G51" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="H51" s="27">
-        <v>39.950000000000003</v>
-      </c>
-      <c r="I51" s="27">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="28">
-        <v>3.99</v>
-      </c>
-      <c r="C52" s="28">
-        <v>3.99</v>
-      </c>
-      <c r="D52" s="28">
-        <v>3.99</v>
-      </c>
-      <c r="E52" s="28">
-        <v>3.99</v>
-      </c>
-      <c r="F52" s="30">
-        <v>3.99</v>
-      </c>
-      <c r="G52" s="30">
-        <v>3.99</v>
-      </c>
-      <c r="H52" s="30">
-        <v>3.99</v>
-      </c>
-      <c r="I52" s="30">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75">
-      <c r="A54" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" s="32">
-        <v>3</v>
-      </c>
-      <c r="C56" s="32">
-        <v>3</v>
-      </c>
-      <c r="D56" s="32">
-        <v>3</v>
-      </c>
-      <c r="E56" s="32">
-        <v>3</v>
-      </c>
-      <c r="F56" s="33">
-        <v>3</v>
-      </c>
-      <c r="G56" s="34">
-        <v>3</v>
-      </c>
-      <c r="H56" s="34">
-        <v>3</v>
-      </c>
-      <c r="I56" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="4" customFormat="1" ht="15.75">
-      <c r="A57" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="66"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-    </row>
-    <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="28"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-    </row>
-    <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-    </row>
-    <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-    </row>
-    <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-    </row>
-    <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-    </row>
-    <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-    </row>
-    <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-    </row>
-    <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="B103" s="46"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A57:I57"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D75E8E76-381D-454E-96D8-956926CCBEAF}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{84D6BFBA-0B96-4F37-9CCE-6FAE6BD10CC9}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{805BF410-BB2F-4805-9A56-F9955BAC7373}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{4214B300-6182-4582-9A12-D7D895773860}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{5955F94A-6BD7-4023-884F-08E694B88E68}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{A4B9CAD4-DD6C-4A5D-B89C-E84B577D62D2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77ECF096-17EA-4465-8295-E1E557281443}">
   <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3565,291 +1607,292 @@
         <v>8</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="53" customFormat="1" ht="16.5">
       <c r="A2" s="48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" s="51"/>
       <c r="J2" s="50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" s="50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="52"/>
       <c r="M2" s="50" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="53" customFormat="1" ht="16.5">
       <c r="A3" s="48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="50"/>
       <c r="H3" s="51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" s="51"/>
       <c r="J3" s="50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" s="50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" s="52"/>
       <c r="M3" s="50" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="51"/>
       <c r="J4" s="50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" s="52"/>
       <c r="M4" s="50" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="18" customFormat="1" ht="31.5">
       <c r="A7" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="15.75">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="15.75">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G9" s="58" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="J9" s="60" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K9" s="60" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="L9" s="60" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="15.75">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="15.75">
-      <c r="A11" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
+      <c r="A11" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="19" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B12" s="20">
         <v>1</v>
@@ -3890,130 +1933,130 @@
     </row>
     <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75">
       <c r="A14" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
       <c r="A15" s="15" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>186</v>
+        <v>59</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G15" s="55" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="M15" s="23" t="s">
-        <v>189</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="15" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -4030,48 +2073,48 @@
     </row>
     <row r="17" spans="1:13" ht="15.75">
       <c r="A17" s="15" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75">
       <c r="A18" s="15" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B18" s="22">
         <v>1</v>
@@ -4112,7 +2155,7 @@
     </row>
     <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="15" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -4129,7 +2172,7 @@
     </row>
     <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="15" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B20" s="28">
         <v>47.96</v>
@@ -4170,7 +2213,7 @@
     </row>
     <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="15" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B21" s="28">
         <v>0</v>
@@ -4211,148 +2254,148 @@
     </row>
     <row r="22" spans="1:13" ht="15.75">
       <c r="A22" s="15" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="220.5">
       <c r="A23" s="15" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="L23" s="34" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="180">
       <c r="A24" s="15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="I24" s="37" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="31.5">
       <c r="A25" s="15" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="24"/>
@@ -4363,48 +2406,48 @@
     </row>
     <row r="26" spans="1:13" ht="15.75">
       <c r="A26" s="15" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75">
       <c r="A27" s="15" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -4421,7 +2464,7 @@
     </row>
     <row r="28" spans="1:13" ht="15.75">
       <c r="A28" s="15" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -4438,7 +2481,7 @@
     </row>
     <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="15" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -4455,7 +2498,7 @@
     </row>
     <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="15" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -4472,89 +2515,89 @@
     </row>
     <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="15" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>198</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75">
       <c r="A32" s="15" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>199</v>
+        <v>120</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75">
       <c r="A33" s="25" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B33" s="26">
         <v>47.96</v>
@@ -4595,7 +2638,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75">
       <c r="A34" s="15" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B34" s="26">
         <v>0</v>
@@ -4636,7 +2679,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75">
       <c r="A35" s="15" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B35" s="22">
         <v>3</v>
@@ -4677,189 +2720,189 @@
     </row>
     <row r="36" spans="1:13" ht="15.75">
       <c r="A36" s="15" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="M36" s="31" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="204.75">
       <c r="A37" s="15" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="M37" s="34" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="180">
       <c r="A38" s="15" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="K38" s="37" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="M38" s="37" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="173.25">
       <c r="A39" s="15" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="I39" s="37" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="J39" s="37" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="K39" s="37" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="L39" s="37" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="31.5">
       <c r="A40" s="15" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H40" s="23"/>
       <c r="I40" s="24"/>
@@ -4870,7 +2913,7 @@
     </row>
     <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="15" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -4887,89 +2930,89 @@
     </row>
     <row r="42" spans="1:13" ht="47.25">
       <c r="A42" s="15" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="J42" s="40" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="K42" s="40" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="L42" s="40" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="M42" s="40" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75">
       <c r="A43" s="15" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H43" s="54" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="J43" s="40" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K43" s="40" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L43" s="40" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M43" s="40" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75">
       <c r="A44" s="15" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -4986,7 +3029,7 @@
     </row>
     <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="15" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -5003,7 +3046,7 @@
     </row>
     <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="15" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -5020,89 +3063,89 @@
     </row>
     <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="15" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="M47" s="24" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75">
       <c r="A48" s="15" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="G48" s="55" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75">
       <c r="A49" s="15" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B49" s="22">
         <v>3</v>
@@ -5143,7 +3186,7 @@
     </row>
     <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="15" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -5160,7 +3203,7 @@
     </row>
     <row r="51" spans="1:13" ht="15.75">
       <c r="A51" s="25" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B51" s="26">
         <v>59.95</v>
@@ -5201,7 +3244,7 @@
     </row>
     <row r="52" spans="1:13" ht="15.75">
       <c r="A52" s="15" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B52" s="28">
         <v>3.99</v>
@@ -5242,89 +3285,89 @@
     </row>
     <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="15" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="M53" s="24" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="15" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="M54" s="24" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75">
       <c r="A55" s="15" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -5341,7 +3384,7 @@
     </row>
     <row r="56" spans="1:13" ht="15.75">
       <c r="A56" s="1" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="B56" s="32">
         <v>3</v>
@@ -5381,24 +3424,24 @@
       </c>
     </row>
     <row r="57" spans="1:13" s="4" customFormat="1" ht="15.75">
-      <c r="A57" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="B57" s="65"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="65"/>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="66"/>
+      <c r="A57" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="63"/>
     </row>
     <row r="58" spans="1:13" ht="15.75">
       <c r="A58" s="41" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B58" s="42"/>
       <c r="C58" s="42"/>
@@ -5415,7 +3458,7 @@
     </row>
     <row r="59" spans="1:13" ht="15.75">
       <c r="A59" s="15" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
@@ -5432,7 +3475,7 @@
     </row>
     <row r="60" spans="1:13" ht="15.75">
       <c r="A60" s="15" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -5449,7 +3492,7 @@
     </row>
     <row r="61" spans="1:13" ht="15.75">
       <c r="A61" s="15" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -5466,7 +3509,7 @@
     </row>
     <row r="62" spans="1:13" ht="15.75">
       <c r="A62" s="15" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -5483,7 +3526,7 @@
     </row>
     <row r="63" spans="1:13" ht="15.75">
       <c r="A63" s="15" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -5500,7 +3543,7 @@
     </row>
     <row r="64" spans="1:13" ht="15.75">
       <c r="A64" s="15" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -5517,7 +3560,7 @@
     </row>
     <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="15" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B65" s="22"/>
       <c r="C65" s="22"/>
@@ -5534,7 +3577,7 @@
     </row>
     <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="15" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -5551,7 +3594,7 @@
     </row>
     <row r="67" spans="1:13" ht="15.75">
       <c r="A67" s="15" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B67" s="28"/>
       <c r="C67" s="28"/>
@@ -5568,7 +3611,7 @@
     </row>
     <row r="68" spans="1:13" ht="15.75">
       <c r="A68" s="15" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -5585,7 +3628,7 @@
     </row>
     <row r="69" spans="1:13" ht="15.75">
       <c r="A69" s="15" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -5602,7 +3645,7 @@
     </row>
     <row r="70" spans="1:13" ht="15.75">
       <c r="A70" s="15" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -5619,7 +3662,7 @@
     </row>
     <row r="71" spans="1:13" ht="15.75">
       <c r="A71" s="15" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -5636,7 +3679,7 @@
     </row>
     <row r="72" spans="1:13" ht="15.75">
       <c r="A72" s="15" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -5653,7 +3696,7 @@
     </row>
     <row r="73" spans="1:13" ht="15.75">
       <c r="A73" s="15" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -5670,7 +3713,7 @@
     </row>
     <row r="74" spans="1:13" ht="15.75">
       <c r="A74" s="15" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -5687,7 +3730,7 @@
     </row>
     <row r="75" spans="1:13" ht="15.75">
       <c r="A75" s="15" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -5704,7 +3747,7 @@
     </row>
     <row r="76" spans="1:13" ht="15.75">
       <c r="A76" s="15" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -5721,7 +3764,7 @@
     </row>
     <row r="77" spans="1:13" ht="15.75">
       <c r="A77" s="15" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -5738,7 +3781,7 @@
     </row>
     <row r="78" spans="1:13" ht="15.75">
       <c r="A78" s="15" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -5755,7 +3798,7 @@
     </row>
     <row r="79" spans="1:13" ht="15.75">
       <c r="A79" s="15" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -5772,7 +3815,7 @@
     </row>
     <row r="80" spans="1:13" ht="15.75">
       <c r="A80" s="15" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -5789,7 +3832,7 @@
     </row>
     <row r="81" spans="1:13" ht="15.75">
       <c r="A81" s="15" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B81" s="28"/>
       <c r="C81" s="28"/>
@@ -5806,7 +3849,7 @@
     </row>
     <row r="82" spans="1:13" ht="15.75">
       <c r="A82" s="15" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -5823,7 +3866,7 @@
     </row>
     <row r="83" spans="1:13" ht="15.75">
       <c r="A83" s="15" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -5840,7 +3883,7 @@
     </row>
     <row r="84" spans="1:13" ht="15.75">
       <c r="A84" s="15" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -5857,7 +3900,7 @@
     </row>
     <row r="85" spans="1:13" ht="15.75">
       <c r="A85" s="15" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -5874,7 +3917,7 @@
     </row>
     <row r="86" spans="1:13" ht="15.75">
       <c r="A86" s="15" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -5891,7 +3934,7 @@
     </row>
     <row r="87" spans="1:13" ht="15.75">
       <c r="A87" s="15" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -5908,7 +3951,7 @@
     </row>
     <row r="88" spans="1:13" ht="15.75">
       <c r="A88" s="15" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -5925,7 +3968,7 @@
     </row>
     <row r="89" spans="1:13" ht="15.75">
       <c r="A89" s="15" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -5942,7 +3985,7 @@
     </row>
     <row r="90" spans="1:13" ht="15.75">
       <c r="A90" s="15" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -5959,7 +4002,7 @@
     </row>
     <row r="91" spans="1:13" ht="15.75">
       <c r="A91" s="15" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -5976,7 +4019,7 @@
     </row>
     <row r="92" spans="1:13" ht="15.75">
       <c r="A92" s="15" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -5993,7 +4036,7 @@
     </row>
     <row r="93" spans="1:13" ht="15.75">
       <c r="A93" s="15" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -6010,7 +4053,7 @@
     </row>
     <row r="94" spans="1:13" ht="15.75">
       <c r="A94" s="15" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -6027,7 +4070,7 @@
     </row>
     <row r="95" spans="1:13" ht="15.75">
       <c r="A95" s="15" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -6044,7 +4087,7 @@
     </row>
     <row r="96" spans="1:13" ht="15.75">
       <c r="A96" s="15" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -6061,7 +4104,7 @@
     </row>
     <row r="97" spans="1:13" ht="15.75">
       <c r="A97" s="15" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B97" s="22"/>
       <c r="C97" s="22"/>
@@ -6078,7 +4121,7 @@
     </row>
     <row r="98" spans="1:13" ht="15.75">
       <c r="A98" s="15" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
@@ -6095,7 +4138,7 @@
     </row>
     <row r="99" spans="1:13" ht="15.75">
       <c r="A99" s="15" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
@@ -6112,7 +4155,7 @@
     </row>
     <row r="100" spans="1:13" ht="15.75">
       <c r="A100" s="15" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
@@ -6129,7 +4172,7 @@
     </row>
     <row r="101" spans="1:13" ht="15.75">
       <c r="A101" s="15" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
@@ -6146,7 +4189,7 @@
     </row>
     <row r="102" spans="1:13" ht="15.75">
       <c r="A102" s="15" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
@@ -6163,7 +4206,7 @@
     </row>
     <row r="103" spans="1:13" ht="15.75">
       <c r="A103" s="45" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="B103" s="46"/>
       <c r="C103" s="46"/>
@@ -6180,8 +4223,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A11:L11"/>
     <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A11:M11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{B2010E6D-A049-4E0E-B1C1-E0493DEFB2C0}"/>
@@ -6195,7 +4238,2006 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I103"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="4" max="5" width="35.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="8" customFormat="1">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A2" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" s="53" customFormat="1" ht="16.5">
+      <c r="A3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="31.5">
+      <c r="A7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="15.75">
+      <c r="A11" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
+      <c r="A12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="20">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1</v>
+      </c>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
+        <v>2</v>
+      </c>
+      <c r="G12" s="21">
+        <v>2</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
+      <c r="A13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
+      <c r="A14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
+      <c r="A17" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
+      <c r="A18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="22">
+        <v>1</v>
+      </c>
+      <c r="C18" s="22">
+        <v>1</v>
+      </c>
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75">
+      <c r="A19" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
+      <c r="A20" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="28">
+        <v>47.96</v>
+      </c>
+      <c r="C20" s="29">
+        <v>47.96</v>
+      </c>
+      <c r="D20" s="28">
+        <v>47.96</v>
+      </c>
+      <c r="E20" s="28">
+        <v>47.96</v>
+      </c>
+      <c r="F20" s="30">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G20" s="31">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H20" s="31">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I20" s="31">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
+      <c r="A21" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="28">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="30">
+        <v>0</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31">
+        <v>0</v>
+      </c>
+      <c r="I21" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75">
+      <c r="A22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="220.5">
+      <c r="A23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="180">
+      <c r="A24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31.5">
+      <c r="A25" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="A26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75">
+      <c r="A27" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75">
+      <c r="A28" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75">
+      <c r="A30" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75">
+      <c r="A31" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75">
+      <c r="A32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75">
+      <c r="A33" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="26">
+        <v>47.96</v>
+      </c>
+      <c r="C33" s="26">
+        <v>47.96</v>
+      </c>
+      <c r="D33" s="26">
+        <v>47.96</v>
+      </c>
+      <c r="E33" s="26">
+        <v>47.96</v>
+      </c>
+      <c r="F33" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G33" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H33" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I33" s="27">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75">
+      <c r="A34" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="26">
+        <v>0</v>
+      </c>
+      <c r="C34" s="28">
+        <v>0</v>
+      </c>
+      <c r="D34" s="28">
+        <v>0</v>
+      </c>
+      <c r="E34" s="28">
+        <v>0</v>
+      </c>
+      <c r="F34" s="30">
+        <v>0</v>
+      </c>
+      <c r="G34" s="31">
+        <v>0</v>
+      </c>
+      <c r="H34" s="31">
+        <v>0</v>
+      </c>
+      <c r="I34" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75">
+      <c r="A35" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="22">
+        <v>3</v>
+      </c>
+      <c r="C35" s="22">
+        <v>3</v>
+      </c>
+      <c r="D35" s="22">
+        <v>3</v>
+      </c>
+      <c r="E35" s="22">
+        <v>3</v>
+      </c>
+      <c r="F35" s="23">
+        <v>3</v>
+      </c>
+      <c r="G35" s="24">
+        <v>3</v>
+      </c>
+      <c r="H35" s="24">
+        <v>3</v>
+      </c>
+      <c r="I35" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75">
+      <c r="A36" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="204.75">
+      <c r="A37" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="180">
+      <c r="A38" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="165">
+      <c r="A39" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="31.5">
+      <c r="A40" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75">
+      <c r="A41" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+    </row>
+    <row r="42" spans="1:9" ht="47.25">
+      <c r="A42" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75">
+      <c r="A43" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75">
+      <c r="A44" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75">
+      <c r="A45" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75">
+      <c r="A46" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75">
+      <c r="A47" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="I47" s="24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75">
+      <c r="A48" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H48" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I48" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49" s="22">
+        <v>3</v>
+      </c>
+      <c r="C49" s="22">
+        <v>3</v>
+      </c>
+      <c r="D49" s="22">
+        <v>3</v>
+      </c>
+      <c r="E49" s="22">
+        <v>3</v>
+      </c>
+      <c r="F49" s="23">
+        <v>3</v>
+      </c>
+      <c r="G49" s="24">
+        <v>3</v>
+      </c>
+      <c r="H49" s="24">
+        <v>3</v>
+      </c>
+      <c r="I49" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75">
+      <c r="A50" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75">
+      <c r="A51" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="C51" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="D51" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="E51" s="26">
+        <v>59.95</v>
+      </c>
+      <c r="F51" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="G51" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="H51" s="27">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="I51" s="27">
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75">
+      <c r="A52" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" s="28">
+        <v>3.99</v>
+      </c>
+      <c r="C52" s="28">
+        <v>3.99</v>
+      </c>
+      <c r="D52" s="28">
+        <v>3.99</v>
+      </c>
+      <c r="E52" s="28">
+        <v>3.99</v>
+      </c>
+      <c r="F52" s="30">
+        <v>3.99</v>
+      </c>
+      <c r="G52" s="30">
+        <v>3.99</v>
+      </c>
+      <c r="H52" s="30">
+        <v>3.99</v>
+      </c>
+      <c r="I52" s="30">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75">
+      <c r="A53" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75">
+      <c r="A54" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75">
+      <c r="A55" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75">
+      <c r="A56" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="32">
+        <v>3</v>
+      </c>
+      <c r="C56" s="32">
+        <v>3</v>
+      </c>
+      <c r="D56" s="32">
+        <v>3</v>
+      </c>
+      <c r="E56" s="32">
+        <v>3</v>
+      </c>
+      <c r="F56" s="33">
+        <v>3</v>
+      </c>
+      <c r="G56" s="34">
+        <v>3</v>
+      </c>
+      <c r="H56" s="34">
+        <v>3</v>
+      </c>
+      <c r="I56" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A57" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="63"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75">
+      <c r="A58" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75">
+      <c r="A59" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75">
+      <c r="A60" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75">
+      <c r="A61" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75">
+      <c r="A62" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75">
+      <c r="A63" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75">
+      <c r="A64" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75">
+      <c r="A65" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75">
+      <c r="A66" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75">
+      <c r="A67" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="28"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75">
+      <c r="A68" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75">
+      <c r="A69" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75">
+      <c r="A70" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75">
+      <c r="A71" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75">
+      <c r="A72" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75">
+      <c r="A73" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75">
+      <c r="A74" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75">
+      <c r="A75" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75">
+      <c r="A76" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75">
+      <c r="A77" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75">
+      <c r="A78" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75">
+      <c r="A79" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75">
+      <c r="A80" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75">
+      <c r="A81" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75">
+      <c r="A82" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75">
+      <c r="A83" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75">
+      <c r="A84" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75">
+      <c r="A85" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75">
+      <c r="A86" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75">
+      <c r="A87" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75">
+      <c r="A88" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75">
+      <c r="A89" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75">
+      <c r="A90" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75">
+      <c r="A91" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75">
+      <c r="A92" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75">
+      <c r="A93" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75">
+      <c r="A94" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75">
+      <c r="A95" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75">
+      <c r="A96" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75">
+      <c r="A97" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75">
+      <c r="A98" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75">
+      <c r="A99" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75">
+      <c r="A100" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75">
+      <c r="A101" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75">
+      <c r="A102" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75">
+      <c r="A103" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" s="46"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A57:I57"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D75E8E76-381D-454E-96D8-956926CCBEAF}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{84D6BFBA-0B96-4F37-9CCE-6FAE6BD10CC9}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{805BF410-BB2F-4805-9A56-F9955BAC7373}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{4214B300-6182-4582-9A12-D7D895773860}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{5955F94A-6BD7-4023-884F-08E694B88E68}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{A4B9CAD4-DD6C-4A5D-B89C-E84B577D62D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -6360,29 +6402,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>